--- a/Fichiers Excel/Modules.xlsx
+++ b/Fichiers Excel/Modules.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XML Projet\Excel files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnasChatt\Desktop\XMLProjet\Fichiers Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ECA8D7-CD77-43FF-85E4-C88A83AC9F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D174FB43-68D7-43DE-80E6-46E05BF910D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{326FD6D2-A0C3-41BC-AF6A-CE3096327355}"/>
   </bookViews>
@@ -25,32 +25,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>GINF31</t>
   </si>
   <si>
-    <t>Programmation orienté objet &amp; XML</t>
-  </si>
-  <si>
     <t>Programmation orienté objet : Java</t>
   </si>
   <si>
     <t>GINF32</t>
   </si>
   <si>
-    <t>Qualité &amp; aproche proccessus</t>
-  </si>
-  <si>
     <t>Maitrise et optimisation des processus</t>
   </si>
   <si>
     <t>GINF33</t>
   </si>
   <si>
-    <t>Modélisation orienté objet &amp; IHM</t>
-  </si>
-  <si>
     <t>GINF34</t>
   </si>
   <si>
@@ -108,9 +99,6 @@
     <t>GINF46</t>
   </si>
   <si>
-    <t>Economie &amp; comptabilité 2</t>
-  </si>
-  <si>
     <t>Management de projet</t>
   </si>
   <si>
@@ -120,12 +108,6 @@
     <t>Langues et communication 1</t>
   </si>
   <si>
-    <t>Base de donné avancées 2 &amp; Cloud</t>
-  </si>
-  <si>
-    <t>Securité &amp; cryptographie</t>
-  </si>
-  <si>
     <t>Management de l'entreprise 2</t>
   </si>
   <si>
@@ -159,9 +141,6 @@
     <t>Processus stochastique</t>
   </si>
   <si>
-    <t>Projet collectif &amp; stage</t>
-  </si>
-  <si>
     <t xml:space="preserve">Espagnol </t>
   </si>
   <si>
@@ -189,29 +168,182 @@
     <t>Cycle de vie logiciel</t>
   </si>
   <si>
-    <t>Cloud computing &amp; infogérance</t>
-  </si>
-  <si>
-    <t>designation</t>
-  </si>
-  <si>
     <t>id_module</t>
   </si>
   <si>
-    <t>matiere_1</t>
-  </si>
-  <si>
-    <t>matiere_2</t>
-  </si>
-  <si>
-    <t>matiere_3</t>
+    <t>responsable</t>
+  </si>
+  <si>
+    <t>Mohamed El Haddad</t>
+  </si>
+  <si>
+    <t>Saida Rahali El Azzouzi</t>
+  </si>
+  <si>
+    <t>El Alami</t>
+  </si>
+  <si>
+    <t>Hassan Badir</t>
+  </si>
+  <si>
+    <t>Khalid Amechnoue</t>
+  </si>
+  <si>
+    <t>Amal Zaamouni</t>
+  </si>
+  <si>
+    <t>Ezzine</t>
+  </si>
+  <si>
+    <t>Lazaar</t>
+  </si>
+  <si>
+    <t>semestre</t>
+  </si>
+  <si>
+    <t>GINF311</t>
+  </si>
+  <si>
+    <t>GINF321</t>
+  </si>
+  <si>
+    <t>GINF331</t>
+  </si>
+  <si>
+    <t>GINF341</t>
+  </si>
+  <si>
+    <t>GINF351</t>
+  </si>
+  <si>
+    <t>GINF361</t>
+  </si>
+  <si>
+    <t>GINF411</t>
+  </si>
+  <si>
+    <t>GINF421</t>
+  </si>
+  <si>
+    <t>GINF431</t>
+  </si>
+  <si>
+    <t>GINF441</t>
+  </si>
+  <si>
+    <t>GINF451</t>
+  </si>
+  <si>
+    <t>GINF461</t>
+  </si>
+  <si>
+    <t>id_matiere_1</t>
+  </si>
+  <si>
+    <t>id_matiere_3</t>
+  </si>
+  <si>
+    <t>GINF323</t>
+  </si>
+  <si>
+    <t>id_matiere_2</t>
+  </si>
+  <si>
+    <t>designation_matiere_1</t>
+  </si>
+  <si>
+    <t>designation_matiere_3</t>
+  </si>
+  <si>
+    <t>designation_matiere_2</t>
+  </si>
+  <si>
+    <t>GINF312</t>
+  </si>
+  <si>
+    <t>GINF322</t>
+  </si>
+  <si>
+    <t>GINF332</t>
+  </si>
+  <si>
+    <t>GINF342</t>
+  </si>
+  <si>
+    <t>GINF352</t>
+  </si>
+  <si>
+    <t>GINF362</t>
+  </si>
+  <si>
+    <t>GINF412</t>
+  </si>
+  <si>
+    <t>GINF422</t>
+  </si>
+  <si>
+    <t>GINF432</t>
+  </si>
+  <si>
+    <t>GINF442</t>
+  </si>
+  <si>
+    <t>GINF452</t>
+  </si>
+  <si>
+    <t>GINF462</t>
+  </si>
+  <si>
+    <t>GINF333</t>
+  </si>
+  <si>
+    <t>GINF343</t>
+  </si>
+  <si>
+    <t>GINF363</t>
+  </si>
+  <si>
+    <t>GINF423</t>
+  </si>
+  <si>
+    <t>GINF433</t>
+  </si>
+  <si>
+    <t>GINF463</t>
+  </si>
+  <si>
+    <t>designation_module</t>
+  </si>
+  <si>
+    <t>Programmation orienté objet et XML</t>
+  </si>
+  <si>
+    <t>Qualité et aproche proccessus</t>
+  </si>
+  <si>
+    <t>Modélisation orienté objet et IHM</t>
+  </si>
+  <si>
+    <t>Base de donné avancées 2 et Cloud</t>
+  </si>
+  <si>
+    <t>Cloud computing et infogérance</t>
+  </si>
+  <si>
+    <t>Securité et cryptographie</t>
+  </si>
+  <si>
+    <t>Economie et comptabilité 2</t>
+  </si>
+  <si>
+    <t>Projet collectif et stage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +354,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -300,7 +438,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,233 +734,424 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B328047C-6353-4DE4-AE9C-47238ED072FE}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="58.6640625" customWidth="1"/>
-    <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="46.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.77734375" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.5546875" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="41.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" customWidth="1"/>
+    <col min="10" max="10" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>58</v>
-      </c>
       <c r="E1" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="1">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
+      <c r="I13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>